--- a/data/trans_dic/P44A$sangre-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Habitat-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.08841188638940746</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6176545392059818</v>
+        <v>0.6176545392059819</v>
       </c>
     </row>
     <row r="5">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5464325076830062</v>
+        <v>0.5469450744022536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06120638382031698</v>
+        <v>0.06092616782316359</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04074593911353219</v>
+        <v>0.04054362582214014</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.522947650547372</v>
+        <v>0.5300570778996609</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06575739337389309</v>
+        <v>0.06316624937723214</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02107690556291711</v>
+        <v>0.02176029960527331</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5577946141150965</v>
+        <v>0.5587521860114066</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3939456690569839</v>
+        <v>0.4055073164579395</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2941749578595758</v>
+        <v>0.2475152440790914</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7216446899828693</v>
+        <v>0.7246819018134186</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.468981364534434</v>
+        <v>0.4693741254510193</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3396998627634246</v>
+        <v>0.3254492329582075</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6603947786113754</v>
+        <v>0.6664491122593552</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3663978001486943</v>
+        <v>0.3297766329420147</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2067566468255656</v>
+        <v>0.2055174795103272</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6741698650106108</v>
+        <v>0.6690754272374092</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.05934015501405136</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.7083782062251136</v>
+        <v>0.7083782062251137</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.06532148327898711</v>
@@ -773,7 +773,7 @@
         <v>0.1084958326139009</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.6807326073659933</v>
+        <v>0.6807326073659932</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03511626036225855</v>
+        <v>0.0353859372036529</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05292613020878722</v>
+        <v>0.06761557427250157</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5826590443024506</v>
+        <v>0.5865326077708712</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -799,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6477442478632174</v>
+        <v>0.6487286914203726</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01667577548045291</v>
+        <v>0.01626958849671243</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05017760260208839</v>
+        <v>0.05379330256878245</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6330084848846367</v>
+        <v>0.6300899901604181</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3075704052720238</v>
+        <v>0.3089031506398465</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2821896497717974</v>
+        <v>0.2965541821935789</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7252271783350898</v>
+        <v>0.7247593608424714</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1400402546523383</v>
+        <v>0.1369538799023258</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1899227146009431</v>
+        <v>0.1879222873078049</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7618308811154199</v>
+        <v>0.7703843213906386</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1476511567104967</v>
+        <v>0.1534880865341666</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1905893583185322</v>
+        <v>0.1992936809262248</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7255169752413086</v>
+        <v>0.727032503106294</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03527452803141352</v>
+        <v>0.03659432649734829</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02828774253407638</v>
+        <v>0.02749987783107456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4978726211802614</v>
+        <v>0.4988591235736647</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03640912746196636</v>
+        <v>0.0354759438191407</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6800835677689964</v>
+        <v>0.6783893735849771</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04038773435598047</v>
+        <v>0.05569738053715097</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0183759473632059</v>
+        <v>0.02195990746169783</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6039674665580228</v>
+        <v>0.5991729003253491</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3058869685225236</v>
+        <v>0.3281431182895372</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2592900654644767</v>
+        <v>0.255564375902378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6802690166293786</v>
+        <v>0.6821082618962172</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2902430305499868</v>
+        <v>0.2978297135111919</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2207156884676799</v>
+        <v>0.2256944167269924</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8259276403989216</v>
+        <v>0.8268736140338327</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2302898249701715</v>
+        <v>0.2470385698308419</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2033584556050256</v>
+        <v>0.1854901551332533</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7228791731897599</v>
+        <v>0.7157358380032155</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.08460227481587997</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.7392470602818886</v>
+        <v>0.7392470602818885</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.1896801741214474</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1380635565376187</v>
+        <v>0.1449116963691363</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0510023434933676</v>
+        <v>0.04857074287368251</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5982090966709642</v>
+        <v>0.6031529390495213</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02622311665455468</v>
+        <v>0.02550936122070504</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6843520403788038</v>
+        <v>0.689843332560341</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1027820047144238</v>
+        <v>0.1002613615100194</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04716767967920277</v>
+        <v>0.05236276377241866</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6567740492526197</v>
+        <v>0.6617454384532189</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4232398767653816</v>
+        <v>0.4448533024212928</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2375706113300344</v>
+        <v>0.2395803310545022</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.717447738353679</v>
+        <v>0.7244561532063861</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2625148660297487</v>
+        <v>0.2232427059833649</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2112258949688808</v>
+        <v>0.2109739338432413</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7841183905662935</v>
+        <v>0.785056250294234</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3161515048670321</v>
+        <v>0.3007809776151211</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1765588752074999</v>
+        <v>0.1786595905332042</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7378763861098946</v>
+        <v>0.7414300197897568</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.08229093583507152</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7058988816476025</v>
+        <v>0.7058988816476026</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.1331319971424602</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06350833870925576</v>
+        <v>0.06536828087019228</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6083765060977885</v>
+        <v>0.6057431317623412</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03769291518248413</v>
+        <v>0.03844152127638911</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.037157305879423</v>
+        <v>0.0381829052693855</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6737786560590471</v>
+        <v>0.6741386403359227</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09275409541641207</v>
+        <v>0.093762127756435</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06481844291074078</v>
+        <v>0.06210430274424061</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6470004662734906</v>
+        <v>0.6484998118830496</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1624571092941199</v>
+        <v>0.1672472178264327</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6755513817084396</v>
+        <v>0.6790323291057185</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1561383880379678</v>
+        <v>0.158832619243896</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1533160264765593</v>
+        <v>0.1422265675815723</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7360994463435225</v>
+        <v>0.7345240439931018</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1929018547174938</v>
+        <v>0.1929437434639666</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1386598098097961</v>
+        <v>0.1402062856021956</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6951310442345715</v>
+        <v>0.6965629419224536</v>
       </c>
     </row>
     <row r="19">
@@ -1405,25 +1405,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>55096</v>
+        <v>55147</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>55375</v>
+        <v>56128</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1999</v>
+        <v>1920</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1190</v>
+        <v>1228</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>115307</v>
+        <v>115505</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5988</v>
+        <v>6164</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9087</v>
+        <v>7645</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>72762</v>
+        <v>73068</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7129</v>
+        <v>7134</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8684</v>
+        <v>8319</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>69930</v>
+        <v>70571</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11139</v>
+        <v>10026</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11672</v>
+        <v>11602</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>139364</v>
+        <v>138311</v>
       </c>
     </row>
     <row r="8">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2091</v>
+        <v>2671</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>89712</v>
+        <v>90308</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -1558,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>90900</v>
+        <v>91038</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1046</v>
+        <v>1021</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3672</v>
+        <v>3937</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>186296</v>
+        <v>185437</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8114</v>
+        <v>8149</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11148</v>
+        <v>11715</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>111663</v>
+        <v>111591</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5093</v>
+        <v>4981</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6396</v>
+        <v>6328</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>106910</v>
+        <v>108110</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9265</v>
+        <v>9631</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13947</v>
+        <v>14584</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>213522</v>
+        <v>213968</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>930</v>
+        <v>964</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>58784</v>
+        <v>58901</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>962</v>
+        <v>937</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>57866</v>
+        <v>57721</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2131</v>
+        <v>2939</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>939</v>
+        <v>1122</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>122700</v>
+        <v>121726</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8062</v>
+        <v>8648</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7983</v>
+        <v>7869</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>80320</v>
+        <v>80537</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7668</v>
+        <v>7869</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4481</v>
+        <v>4582</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>70275</v>
+        <v>70355</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12154</v>
+        <v>13037</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10390</v>
+        <v>9477</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>146858</v>
+        <v>145407</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5720</v>
+        <v>6004</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2984</v>
+        <v>2842</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>118447</v>
+        <v>119425</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>959</v>
+        <v>933</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>134788</v>
+        <v>135869</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>7235</v>
+        <v>7058</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4485</v>
+        <v>4979</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>259398</v>
+        <v>261362</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17535</v>
+        <v>18431</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13899</v>
+        <v>14016</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>142056</v>
+        <v>143444</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7603</v>
+        <v>6466</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7728</v>
+        <v>7719</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>154438</v>
+        <v>154622</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>22255</v>
+        <v>21173</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16789</v>
+        <v>16989</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>291430</v>
+        <v>292834</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10141</v>
+        <v>10438</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>347305</v>
+        <v>345801</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4031</v>
+        <v>4111</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4315</v>
+        <v>4434</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>355934</v>
+        <v>356125</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20064</v>
+        <v>20282</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>17878</v>
+        <v>17129</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>711142</v>
+        <v>712790</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25942</v>
+        <v>26707</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>385653</v>
+        <v>387640</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16699</v>
+        <v>16987</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17804</v>
+        <v>16516</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>388856</v>
+        <v>388024</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>41728</v>
+        <v>41737</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>38244</v>
+        <v>38671</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>764044</v>
+        <v>765618</v>
       </c>
     </row>
     <row r="24">
